--- a/src/tests/java/auth/dev/net/data_files/test_incorrectly_name_acc.xlsx
+++ b/src/tests/java/auth/dev/net/data_files/test_incorrectly_name_acc.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="24915" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ru" sheetId="1" r:id="rId1"/>
-    <sheet name="Ukr" sheetId="2" r:id="rId2"/>
-    <sheet name="Eng" sheetId="3" r:id="rId3"/>
+    <sheet name="Ukr" sheetId="2" r:id="rId1"/>
+    <sheet name="Ru" sheetId="3" r:id="rId2"/>
+    <sheet name="Eng" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="79">
   <si>
     <t>testName</t>
   </si>
@@ -30,235 +30,229 @@
     <t>displayedError</t>
   </si>
   <si>
+    <t>rest21_final_001</t>
+  </si>
+  <si>
+    <t>Отсутствие информации в поле ввода имени почтового ящика</t>
+  </si>
+  <si>
+    <t>Почтовый ящик с указанным именем уже существует</t>
+  </si>
+  <si>
+    <t>Почтовый ящик с указанным именем использовался ранее и был удалён</t>
+  </si>
+  <si>
+    <t>rest21_final_002</t>
+  </si>
+  <si>
+    <t>rest21_final_003</t>
+  </si>
+  <si>
+    <t>Почтовый ящик с указанным именем использовался ранее и заблокирован</t>
+  </si>
+  <si>
+    <t>В имени почтового ящика указана кириллица</t>
+  </si>
+  <si>
+    <t>бармалейrest21</t>
+  </si>
+  <si>
+    <t>В имени почтового ящика латинница и кириллица</t>
+  </si>
+  <si>
+    <t>бармалей</t>
+  </si>
+  <si>
+    <t>В имени почтового ящика указаны недопустимые символы</t>
+  </si>
+  <si>
+    <t>rest21~final_003</t>
+  </si>
+  <si>
+    <t>rest21`final_003</t>
+  </si>
+  <si>
+    <t>rest21!final_004</t>
+  </si>
+  <si>
+    <t>rest21@final_004</t>
+  </si>
+  <si>
+    <t>rest21#final_005</t>
+  </si>
+  <si>
+    <t>rest21$final_005</t>
+  </si>
+  <si>
+    <t>rest21%final_006</t>
+  </si>
+  <si>
+    <t>rest21^final_006</t>
+  </si>
+  <si>
+    <t>rest21&amp;final_007</t>
+  </si>
+  <si>
+    <t>rest21*final_007</t>
+  </si>
+  <si>
+    <t>rest21(final_008</t>
+  </si>
+  <si>
+    <t>rest21)final_008</t>
+  </si>
+  <si>
+    <t>rest21+final_009</t>
+  </si>
+  <si>
+    <t>rest21=final_009</t>
+  </si>
+  <si>
+    <t>rest21[final_010</t>
+  </si>
+  <si>
+    <t>rest21]final_010</t>
+  </si>
+  <si>
+    <t>rest21{final_011</t>
+  </si>
+  <si>
+    <t>rest21}final_011</t>
+  </si>
+  <si>
+    <t>rest21\final_012</t>
+  </si>
+  <si>
+    <t>rest21|final_012</t>
+  </si>
+  <si>
+    <t>rest21;final_013</t>
+  </si>
+  <si>
+    <t>rest21:final_013</t>
+  </si>
+  <si>
+    <t>rest21"final_014</t>
+  </si>
+  <si>
+    <t>rest21,final_014</t>
+  </si>
+  <si>
+    <t>rest21/final_015</t>
+  </si>
+  <si>
+    <t>rest21&lt;final_015</t>
+  </si>
+  <si>
+    <t>rest21&gt;final_015</t>
+  </si>
+  <si>
+    <t>rest21?final_016</t>
+  </si>
+  <si>
+    <t>rest21#final_017</t>
+  </si>
+  <si>
+    <t>rest21 final_018</t>
+  </si>
+  <si>
+    <t>rest21 final_019</t>
+  </si>
+  <si>
+    <t>В имени почтового ящика символ " . " указан в начале</t>
+  </si>
+  <si>
+    <t>.rest21_final_001</t>
+  </si>
+  <si>
+    <t>rest21_final_002.</t>
+  </si>
+  <si>
+    <t>В имени почтового ящика символ " . " указан в конце</t>
+  </si>
+  <si>
+    <t>.rest21_final_002.</t>
+  </si>
+  <si>
+    <t>В имени почтового ящика символ " . " указан вначале и конце</t>
+  </si>
+  <si>
+    <t>В имени почтового ящика указано последовательное использование символа " . "</t>
+  </si>
+  <si>
+    <t>rest21.._final_002</t>
+  </si>
+  <si>
+    <t>В поле остаются первые 32 введённых.</t>
+  </si>
+  <si>
+    <t>В имени почтового ящика указано символов больше допустимого &gt;32</t>
+  </si>
+  <si>
+    <t>rest21_final_001rest21_final_001</t>
+  </si>
+  <si>
+    <t>Поле має бути заповнене</t>
+  </si>
+  <si>
+    <t>На жаль, скринька з таким іменем вже зайнята</t>
+  </si>
+  <si>
+    <t>Ім'я поштової скриньки може містити тільки символи _-. (підкреслення, дефіс, крапка)</t>
+  </si>
+  <si>
+    <t>Ім'я поштової скриньки не може містити символи КИРИЛИЦІ</t>
+  </si>
+  <si>
+    <t>Символ . (крапка) не може використовуватися на початку і(або) в кінці</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Багаторазове використання символу . (крапка) неможливе</t>
+  </si>
+  <si>
+    <t>infoTest</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
     <t>Поле должно быть заполнено</t>
   </si>
   <si>
     <t>К сожалению, ящик с таким именем занят</t>
   </si>
   <si>
-    <t>rest21_final_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> создать данній ящик</t>
-  </si>
-  <si>
-    <t>Отсутствие информации в поле ввода имени почтового ящика</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>Почтовый ящик с указанным именем уже существует</t>
-  </si>
-  <si>
-    <t>Почтовый ящик с указанным именем использовался ранее и был удалён</t>
-  </si>
-  <si>
-    <t>rest21_final_002</t>
-  </si>
-  <si>
-    <t>создать и удалить</t>
-  </si>
-  <si>
-    <t>rest21_final_003</t>
-  </si>
-  <si>
-    <t>Почтовый ящик с указанным именем использовался ранее и заблокирован</t>
-  </si>
-  <si>
-    <t>создать и заблокировать</t>
-  </si>
-  <si>
-    <t>В имени почтового ящика указана кириллица</t>
-  </si>
-  <si>
     <t>Имя почтового ящика не может содержать символы КИРИЛЛИЦЫ</t>
   </si>
   <si>
-    <t>бармалейrest21</t>
-  </si>
-  <si>
-    <t>В имени почтового ящика латинница и кириллица</t>
-  </si>
-  <si>
-    <t>бармалей</t>
-  </si>
-  <si>
     <t>Имя почтового ящика может содержать только символы _-. (подчеркивание, дефис и точка)</t>
   </si>
   <si>
-    <t>В имени почтового ящика указаны недопустимые символы</t>
-  </si>
-  <si>
-    <t>rest21~final_003</t>
-  </si>
-  <si>
-    <t>rest21`final_003</t>
-  </si>
-  <si>
-    <t>rest21!final_004</t>
-  </si>
-  <si>
-    <t>rest21@final_004</t>
-  </si>
-  <si>
-    <t>rest21#final_005</t>
-  </si>
-  <si>
-    <t>rest21$final_005</t>
-  </si>
-  <si>
-    <t>rest21%final_006</t>
-  </si>
-  <si>
-    <t>rest21^final_006</t>
-  </si>
-  <si>
-    <t>rest21&amp;final_007</t>
-  </si>
-  <si>
-    <t>rest21*final_007</t>
-  </si>
-  <si>
-    <t>rest21(final_008</t>
-  </si>
-  <si>
-    <t>rest21)final_008</t>
-  </si>
-  <si>
-    <t>rest21+final_009</t>
-  </si>
-  <si>
-    <t>rest21=final_009</t>
-  </si>
-  <si>
-    <t>rest21[final_010</t>
-  </si>
-  <si>
-    <t>rest21]final_010</t>
-  </si>
-  <si>
-    <t>rest21{final_011</t>
-  </si>
-  <si>
-    <t>rest21}final_011</t>
-  </si>
-  <si>
-    <t>rest21\final_012</t>
-  </si>
-  <si>
-    <t>rest21|final_012</t>
-  </si>
-  <si>
-    <t>rest21;final_013</t>
-  </si>
-  <si>
-    <t>rest21:final_013</t>
-  </si>
-  <si>
-    <t>rest21"final_014</t>
-  </si>
-  <si>
-    <t>rest21,final_014</t>
-  </si>
-  <si>
-    <t>rest21/final_015</t>
-  </si>
-  <si>
-    <t>rest21&lt;final_015</t>
-  </si>
-  <si>
-    <t>rest21&gt;final_015</t>
-  </si>
-  <si>
-    <t>rest21?final_016</t>
-  </si>
-  <si>
-    <t>rest21#final_017</t>
-  </si>
-  <si>
-    <t>rest21 final_018</t>
-  </si>
-  <si>
-    <t>rest21 final_019</t>
-  </si>
-  <si>
-    <t>В имени почтового ящика символ " . " указан в начале</t>
-  </si>
-  <si>
     <t>Символ . (точка) не может использоваться в начале и(или) в конце</t>
   </si>
   <si>
-    <t>.rest21_final_001</t>
-  </si>
-  <si>
-    <t>rest21_final_002.</t>
-  </si>
-  <si>
-    <t>В имени почтового ящика символ " . " указан в конце</t>
-  </si>
-  <si>
-    <t>.rest21_final_002.</t>
-  </si>
-  <si>
-    <t>В имени почтового ящика символ " . " указан вначале и конце</t>
-  </si>
-  <si>
-    <t>В имени почтового ящика указано последовательное использование символа " . "</t>
-  </si>
-  <si>
     <t>Многократное использование символа . (точка) невозможно</t>
   </si>
   <si>
-    <t>rest21.._final_002</t>
-  </si>
-  <si>
-    <t>В поле остаются первые 32 введённых.</t>
-  </si>
-  <si>
-    <t>В имени почтового ящика указано символов больше допустимого &gt;32</t>
-  </si>
-  <si>
-    <t>отдельний тест</t>
-  </si>
-  <si>
-    <t>rest21_final_001rest21_final_001</t>
-  </si>
-  <si>
-    <t>Поле має бути заповнене</t>
+    <t>. symbol repeated use is not allowed</t>
+  </si>
+  <si>
+    <t>Your mailbox name can’t use . symbol at the beginning and(or) at the end</t>
+  </si>
+  <si>
+    <t>Your mailbox name may use only these symbols _-. (underscore, hyphen and dot)</t>
+  </si>
+  <si>
+    <t>Your mailbox name can’t use CYRILLIC letters</t>
+  </si>
+  <si>
+    <t>Unfortunately, someone already got that mailbox</t>
   </si>
   <si>
     <t xml:space="preserve"> You can’t leave this empty</t>
-  </si>
-  <si>
-    <t>На жаль, скринька з таким іменем вже зайнята</t>
-  </si>
-  <si>
-    <t>Unfortunately, someone already got that mailbox</t>
-  </si>
-  <si>
-    <t>Your mailbox name may use only these symbols _-. (underscore, hyphen and dot)</t>
-  </si>
-  <si>
-    <t>Ім'я поштової скриньки може містити тільки символи _-. (підкреслення, дефіс, крапка)</t>
-  </si>
-  <si>
-    <t>Ім'я поштової скриньки не може містити символи КИРИЛИЦІ</t>
-  </si>
-  <si>
-    <t>Your mailbox name can’t use CYRILLIC letters</t>
-  </si>
-  <si>
-    <t>Символ . (крапка) не може використовуватися на початку і(або) в кінці</t>
-  </si>
-  <si>
-    <t>Your mailbox name can’t use . symbol at the beginning and(or) at the end</t>
-  </si>
-  <si>
-    <t>. symbol repeated use is not allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Багаторазове використання символу . (крапка) неможливе</t>
   </si>
 </sst>
 </file>
@@ -305,11 +299,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -613,661 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:D43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,18 +633,21 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1308,13 +655,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1322,13 +669,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,13 +683,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,13 +697,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,13 +711,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,13 +725,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,13 +739,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,27 +753,27 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,13 +781,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1448,13 +795,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,13 +809,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1476,13 +823,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,13 +837,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,13 +851,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1532,13 +879,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,13 +893,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,13 +935,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1644,13 +991,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1658,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1672,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,13 +1033,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,13 +1047,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,13 +1061,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1728,13 +1075,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1742,13 +1089,13 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1756,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,13 +1117,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1798,13 +1145,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1812,13 +1159,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1826,13 +1173,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1840,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1854,13 +1201,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1868,13 +1215,633 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
       </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +1857,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection sqref="A1:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1920,10 +1887,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1931,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,13 +1912,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1959,13 +1926,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1973,13 +1940,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1987,13 +1954,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,13 +1968,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2015,13 +1982,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2029,27 +1996,27 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2057,13 +2024,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2071,13 +2038,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2085,13 +2052,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2099,13 +2066,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2113,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2127,13 +2094,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2141,13 +2108,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2155,13 +2122,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,13 +2136,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2183,13 +2150,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2197,13 +2164,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,13 +2178,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,13 +2192,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2239,13 +2206,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,13 +2220,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,13 +2234,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2295,13 +2262,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,13 +2276,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2323,13 +2290,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2337,13 +2304,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2351,13 +2318,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2365,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2379,13 +2346,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2393,13 +2360,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2407,13 +2374,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,13 +2388,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2435,13 +2402,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2449,13 +2416,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2463,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2477,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2491,13 +2458,13 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/tests/java/auth/dev/net/data_files/test_incorrectly_name_acc.xlsx
+++ b/src/tests/java/auth/dev/net/data_files/test_incorrectly_name_acc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="24915" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="24915" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Ukr" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="80">
   <si>
     <t>testName</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Символ . (крапка) не може використовуватися на початку і(або) в кінці</t>
   </si>
   <si>
-    <t xml:space="preserve"> Багаторазове використання символу . (крапка) неможливе</t>
-  </si>
-  <si>
     <t>infoTest</t>
   </si>
   <si>
@@ -253,6 +250,12 @@
   </si>
   <si>
     <t xml:space="preserve"> You can’t leave this empty</t>
+  </si>
+  <si>
+    <t>Багаторазове використання символу . (крапка) неможливе</t>
+  </si>
+  <si>
+    <t>12rest21_finrest21_finrest21_finrest21_fin</t>
   </si>
 </sst>
 </file>
@@ -610,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -1204,7 +1207,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
         <v>53</v>
@@ -1215,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
@@ -1233,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:D43"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1278,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1292,7 +1295,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1306,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1320,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1334,7 +1337,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1348,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1362,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1376,7 +1379,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1390,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1404,7 +1407,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1418,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1432,7 +1435,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1446,7 +1449,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1460,7 +1463,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1474,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1488,7 +1491,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1502,7 +1505,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1516,7 +1519,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1530,7 +1533,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1544,7 +1547,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1558,7 +1561,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1572,7 +1575,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1586,7 +1589,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1600,7 +1603,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1614,7 +1617,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1628,7 +1631,7 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1642,7 +1645,7 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1656,7 +1659,7 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -1670,7 +1673,7 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -1684,7 +1687,7 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -1698,7 +1701,7 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -1712,7 +1715,7 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -1726,7 +1729,7 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -1740,7 +1743,7 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -1754,7 +1757,7 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -1768,7 +1771,7 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -1782,7 +1785,7 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
@@ -1796,7 +1799,7 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
@@ -1810,7 +1813,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
@@ -1824,7 +1827,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
         <v>53</v>
@@ -1879,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1901,7 +1904,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1915,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1929,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1943,7 +1946,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1957,7 +1960,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1971,7 +1974,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1985,7 +1988,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1999,7 +2002,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -2013,7 +2016,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -2027,7 +2030,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -2041,7 +2044,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -2055,7 +2058,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -2069,7 +2072,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -2083,7 +2086,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -2097,7 +2100,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -2111,7 +2114,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -2125,7 +2128,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -2139,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -2153,7 +2156,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -2167,7 +2170,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -2181,7 +2184,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -2195,7 +2198,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -2209,7 +2212,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -2223,7 +2226,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -2237,7 +2240,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -2251,7 +2254,7 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -2265,7 +2268,7 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -2279,7 +2282,7 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -2293,7 +2296,7 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -2307,7 +2310,7 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -2321,7 +2324,7 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -2335,7 +2338,7 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -2349,7 +2352,7 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -2363,7 +2366,7 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -2377,7 +2380,7 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -2391,7 +2394,7 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -2405,7 +2408,7 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
@@ -2419,7 +2422,7 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
@@ -2433,7 +2436,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
@@ -2447,7 +2450,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
         <v>53</v>

--- a/src/tests/java/auth/dev/net/data_files/test_incorrectly_name_acc.xlsx
+++ b/src/tests/java/auth/dev/net/data_files/test_incorrectly_name_acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="79">
   <si>
     <t>testName</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>infoTest</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>info</t>
@@ -613,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,9 +640,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>58</v>
       </c>
@@ -1207,7 +1202,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
         <v>53</v>
@@ -1218,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
@@ -1259,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1281,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1295,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1309,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1323,7 +1318,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1337,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1351,7 +1346,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1365,7 +1360,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1379,7 +1374,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1393,7 +1388,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1407,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1421,7 +1416,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1435,7 +1430,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1449,7 +1444,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1463,7 +1458,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1477,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1491,7 +1486,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1505,7 +1500,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1519,7 +1514,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1533,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1547,7 +1542,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1561,7 +1556,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1575,7 +1570,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1589,7 +1584,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1603,7 +1598,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1617,7 +1612,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1631,7 +1626,7 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1645,7 +1640,7 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1659,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -1673,7 +1668,7 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -1687,7 +1682,7 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -1701,7 +1696,7 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -1715,7 +1710,7 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -1729,7 +1724,7 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -1743,7 +1738,7 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -1757,7 +1752,7 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -1771,7 +1766,7 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -1785,7 +1780,7 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
@@ -1799,7 +1794,7 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
@@ -1813,7 +1808,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
@@ -1827,7 +1822,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>53</v>
@@ -1882,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1904,7 +1899,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1918,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1932,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1946,7 +1941,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1960,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1974,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1988,7 +1983,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -2002,7 +1997,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -2016,7 +2011,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -2030,7 +2025,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -2044,7 +2039,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -2058,7 +2053,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -2072,7 +2067,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -2086,7 +2081,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -2100,7 +2095,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -2114,7 +2109,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -2128,7 +2123,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -2142,7 +2137,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -2156,7 +2151,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -2170,7 +2165,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -2184,7 +2179,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -2198,7 +2193,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -2212,7 +2207,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -2226,7 +2221,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -2240,7 +2235,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -2254,7 +2249,7 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -2268,7 +2263,7 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -2282,7 +2277,7 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -2296,7 +2291,7 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -2310,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -2324,7 +2319,7 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -2338,7 +2333,7 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -2352,7 +2347,7 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -2366,7 +2361,7 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -2380,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -2394,7 +2389,7 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -2408,7 +2403,7 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
@@ -2422,7 +2417,7 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
@@ -2436,7 +2431,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
@@ -2450,7 +2445,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
         <v>53</v>
